--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Alcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Alcam.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H2">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="N2">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="O2">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="P2">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="Q2">
-        <v>537.2915373271314</v>
+        <v>1.967732724555111</v>
       </c>
       <c r="R2">
-        <v>4835.623835944183</v>
+        <v>17.709594520996</v>
       </c>
       <c r="S2">
-        <v>0.335562762919294</v>
+        <v>0.01030092163845899</v>
       </c>
       <c r="T2">
-        <v>0.3355627629192939</v>
+        <v>0.01030092163845899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H3">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.517626</v>
       </c>
       <c r="O3">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="P3">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="Q3">
-        <v>9.128712454001555</v>
+        <v>2.459541925900889</v>
       </c>
       <c r="R3">
-        <v>82.15841208601401</v>
+        <v>22.135877333108</v>
       </c>
       <c r="S3">
-        <v>0.005701292054960208</v>
+        <v>0.01287550302388641</v>
       </c>
       <c r="T3">
-        <v>0.005701292054960208</v>
+        <v>0.01287550302388641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H4">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="N4">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="O4">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="P4">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="Q4">
-        <v>16.52744443499255</v>
+        <v>5.056367567948667</v>
       </c>
       <c r="R4">
-        <v>148.746999914933</v>
+        <v>45.50730811153799</v>
       </c>
       <c r="S4">
-        <v>0.01032213339184703</v>
+        <v>0.02646967519659498</v>
       </c>
       <c r="T4">
-        <v>0.01032213339184703</v>
+        <v>0.02646967519659498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H5">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="N5">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="O5">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="P5">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="Q5">
-        <v>525.5182023014611</v>
+        <v>66.84320137352356</v>
       </c>
       <c r="R5">
-        <v>4729.663820713151</v>
+        <v>601.5888123617119</v>
       </c>
       <c r="S5">
-        <v>0.3282097849631513</v>
+        <v>0.3499187520846235</v>
       </c>
       <c r="T5">
-        <v>0.3282097849631512</v>
+        <v>0.3499187520846235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J6">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="N6">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="O6">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="P6">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="Q6">
-        <v>17.87061444348956</v>
+        <v>0.2429130743195556</v>
       </c>
       <c r="R6">
-        <v>160.835529991406</v>
+        <v>2.186217668876</v>
       </c>
       <c r="S6">
-        <v>0.01116100355414994</v>
+        <v>0.0012716302942457</v>
       </c>
       <c r="T6">
-        <v>0.01116100355414993</v>
+        <v>0.001271630294245699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J7">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.517626</v>
       </c>
       <c r="O7">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="P7">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="Q7">
         <v>0.3036260378164445</v>
@@ -883,10 +883,10 @@
         <v>2.732634340348</v>
       </c>
       <c r="S7">
-        <v>0.0001896281349428566</v>
+        <v>0.001589457746935684</v>
       </c>
       <c r="T7">
-        <v>0.0001896281349428566</v>
+        <v>0.001589457746935684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J8">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="N8">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="O8">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="P8">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="Q8">
-        <v>0.5497119658784445</v>
+        <v>0.6241995040753334</v>
       </c>
       <c r="R8">
-        <v>4.947407692906</v>
+        <v>5.617795536678001</v>
       </c>
       <c r="S8">
-        <v>0.0003433198799251825</v>
+        <v>0.003267633910849711</v>
       </c>
       <c r="T8">
-        <v>0.0003433198799251824</v>
+        <v>0.003267633910849711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J9">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="N9">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="O9">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="P9">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="Q9">
-        <v>17.47902679257578</v>
+        <v>8.251673278785779</v>
       </c>
       <c r="R9">
-        <v>157.311241133182</v>
+        <v>74.265059509072</v>
       </c>
       <c r="S9">
-        <v>0.01091643943032362</v>
+        <v>0.04319684211693745</v>
       </c>
       <c r="T9">
-        <v>0.01091643943032362</v>
+        <v>0.04319684211693745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H10">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="N10">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="O10">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="P10">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="Q10">
-        <v>95.56574274970122</v>
+        <v>1.702560418289555</v>
       </c>
       <c r="R10">
-        <v>860.0916847473109</v>
+        <v>15.323043764606</v>
       </c>
       <c r="S10">
-        <v>0.05968511031656051</v>
+        <v>0.008912766065578274</v>
       </c>
       <c r="T10">
-        <v>0.05968511031656049</v>
+        <v>0.008912766065578274</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H11">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.517626</v>
       </c>
       <c r="O11">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="P11">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="Q11">
-        <v>1.623684955759778</v>
+        <v>2.128093250626444</v>
       </c>
       <c r="R11">
-        <v>14.613164601838</v>
+        <v>19.152839255638</v>
       </c>
       <c r="S11">
-        <v>0.001014064380346847</v>
+        <v>0.01114039602049751</v>
       </c>
       <c r="T11">
-        <v>0.001014064380346847</v>
+        <v>0.01114039602049751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H12">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="N12">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="O12">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="P12">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="Q12">
-        <v>2.939665700006777</v>
+        <v>4.374969818860333</v>
       </c>
       <c r="R12">
-        <v>26.456991300061</v>
+        <v>39.374728369743</v>
       </c>
       <c r="S12">
-        <v>0.001835953622609835</v>
+        <v>0.0229026131000045</v>
       </c>
       <c r="T12">
-        <v>0.001835953622609835</v>
+        <v>0.0229026131000045</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H13">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="N13">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="O13">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="P13">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="Q13">
-        <v>93.47167011277409</v>
+        <v>57.83538966962577</v>
       </c>
       <c r="R13">
-        <v>841.2450310149668</v>
+        <v>520.5185070266319</v>
       </c>
       <c r="S13">
-        <v>0.05837726764459763</v>
+        <v>0.302763586478063</v>
       </c>
       <c r="T13">
-        <v>0.05837726764459761</v>
+        <v>0.302763586478063</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H14">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>29.77446566666667</v>
+        <v>0.4047206666666667</v>
       </c>
       <c r="N14">
-        <v>89.323397</v>
+        <v>1.214162</v>
       </c>
       <c r="O14">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="P14">
-        <v>0.4936227575398824</v>
+        <v>0.02578034976888792</v>
       </c>
       <c r="Q14">
-        <v>139.6438617226346</v>
+        <v>1.011483016595111</v>
       </c>
       <c r="R14">
-        <v>1256.794755503711</v>
+        <v>9.103347149356001</v>
       </c>
       <c r="S14">
-        <v>0.08721388074987804</v>
+        <v>0.005295031770604953</v>
       </c>
       <c r="T14">
-        <v>0.08721388074987804</v>
+        <v>0.005295031770604953</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H15">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.517626</v>
       </c>
       <c r="O15">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="P15">
-        <v>0.008386769381758081</v>
+        <v>0.03222381288358415</v>
       </c>
       <c r="Q15">
-        <v>2.372582799226445</v>
+        <v>1.264290040820889</v>
       </c>
       <c r="R15">
-        <v>21.353245193038</v>
+        <v>11.378610367388</v>
       </c>
       <c r="S15">
-        <v>0.00148178481150817</v>
+        <v>0.006618456092264551</v>
       </c>
       <c r="T15">
-        <v>0.00148178481150817</v>
+        <v>0.006618456092264552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H16">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9158823333333332</v>
+        <v>1.039987</v>
       </c>
       <c r="N16">
-        <v>2.747647</v>
+        <v>3.119961</v>
       </c>
       <c r="O16">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="P16">
-        <v>0.0151841637738675</v>
+        <v>0.06624625531460326</v>
       </c>
       <c r="Q16">
-        <v>4.295537906273444</v>
+        <v>2.599148683568667</v>
       </c>
       <c r="R16">
-        <v>38.659841156461</v>
+        <v>23.392338152118</v>
       </c>
       <c r="S16">
-        <v>0.002682756879485451</v>
+        <v>0.01360633310715407</v>
       </c>
       <c r="T16">
-        <v>0.002682756879485451</v>
+        <v>0.01360633310715407</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H17">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.12203633333333</v>
+        <v>13.74822133333333</v>
       </c>
       <c r="N17">
-        <v>87.36610899999999</v>
+        <v>41.244664</v>
       </c>
       <c r="O17">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329246</v>
       </c>
       <c r="P17">
-        <v>0.482806309304492</v>
+        <v>0.8757495820329247</v>
       </c>
       <c r="Q17">
-        <v>136.5839327006408</v>
+        <v>34.35972890040356</v>
       </c>
       <c r="R17">
-        <v>1229.255394305767</v>
+        <v>309.237560103632</v>
       </c>
       <c r="S17">
-        <v>0.08530281726641953</v>
+        <v>0.1798704013533007</v>
       </c>
       <c r="T17">
-        <v>0.08530281726641951</v>
+        <v>0.1798704013533008</v>
       </c>
     </row>
   </sheetData>
